--- a/sree/documents/Employee Detail for online permit as on 190924.xlsx
+++ b/sree/documents/Employee Detail for online permit as on 190924.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39134AEB-555C-449F-A4A1-94FBD340D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E49D0C-32DF-4B89-9A44-1D2AD6A41B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>j15endra.sharma5@shreecement.com</t>
+  </si>
+  <si>
+    <t>HOD</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1026,7 @@
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>178</v>
       </c>
@@ -1042,16 +1045,19 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>20295</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="1">
-        <v>11</v>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>200</v>
@@ -1063,15 +1069,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>20298</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1">
-        <v>11</v>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>156</v>
@@ -1083,15 +1089,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10762</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>23</v>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>116</v>
@@ -1103,15 +1109,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>20026</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1">
-        <v>23</v>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>144</v>
@@ -1123,15 +1129,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>20066</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1">
-        <v>12</v>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>146</v>
@@ -1143,15 +1149,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>13</v>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>102</v>
@@ -1163,15 +1169,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>13</v>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>103</v>
@@ -1183,15 +1189,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>13</v>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>104</v>
@@ -1203,15 +1209,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>13</v>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>108</v>
@@ -1223,15 +1229,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10130</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <v>13</v>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>113</v>
@@ -1243,15 +1249,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10616</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1">
-        <v>13</v>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>114</v>
@@ -1263,15 +1269,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12910</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
-        <v>13</v>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>119</v>
@@ -1283,15 +1289,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13289</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
-        <v>13</v>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>121</v>
@@ -1303,15 +1309,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13331</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
-        <v>13</v>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>177</v>
@@ -1323,15 +1329,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14243</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1">
-        <v>13</v>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>177</v>
@@ -1350,8 +1356,8 @@
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1">
-        <v>13</v>
+      <c r="C17" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>127</v>
@@ -1370,8 +1376,8 @@
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1">
-        <v>13</v>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>177</v>
@@ -1390,8 +1396,8 @@
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1">
-        <v>13</v>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>136</v>
@@ -1410,8 +1416,8 @@
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1">
-        <v>13</v>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>147</v>
@@ -1430,8 +1436,8 @@
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1">
-        <v>13</v>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>149</v>
@@ -1450,8 +1456,8 @@
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="1">
-        <v>13</v>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>150</v>
@@ -1470,8 +1476,8 @@
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1">
-        <v>13</v>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>153</v>
@@ -1490,8 +1496,8 @@
       <c r="B24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="1">
-        <v>13</v>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>177</v>
@@ -1510,8 +1516,8 @@
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="1">
-        <v>13</v>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>157</v>
@@ -1530,8 +1536,8 @@
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1">
-        <v>13</v>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>158</v>
@@ -1550,8 +1556,8 @@
       <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="1">
-        <v>13</v>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>179</v>
@@ -1570,8 +1576,8 @@
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="1">
-        <v>16</v>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>101</v>
@@ -1590,8 +1596,8 @@
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1">
-        <v>16</v>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>105</v>
@@ -1610,8 +1616,8 @@
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1">
-        <v>16</v>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>109</v>
@@ -1630,8 +1636,8 @@
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1">
-        <v>16</v>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>110</v>
@@ -1650,8 +1656,8 @@
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="1">
-        <v>16</v>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>111</v>
@@ -1670,8 +1676,8 @@
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="1">
-        <v>16</v>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>118</v>
@@ -1690,8 +1696,8 @@
       <c r="B34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="1">
-        <v>16</v>
+      <c r="C34" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>202</v>
@@ -1710,8 +1716,8 @@
       <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1">
-        <v>16</v>
+      <c r="C35" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>177</v>
@@ -1730,8 +1736,8 @@
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="1">
-        <v>16</v>
+      <c r="C36" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>124</v>
@@ -1750,8 +1756,8 @@
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1">
-        <v>16</v>
+      <c r="C37" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>177</v>
@@ -1770,8 +1776,8 @@
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1">
-        <v>16</v>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>126</v>
@@ -1790,8 +1796,8 @@
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="1">
-        <v>16</v>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>128</v>
@@ -1810,8 +1816,8 @@
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="1">
-        <v>16</v>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>137</v>
@@ -1830,8 +1836,8 @@
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1">
-        <v>16</v>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>138</v>
@@ -1850,8 +1856,8 @@
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1">
-        <v>16</v>
+      <c r="C42" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>139</v>
@@ -1870,8 +1876,8 @@
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="1">
-        <v>16</v>
+      <c r="C43" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>141</v>
@@ -1890,8 +1896,8 @@
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="1">
-        <v>16</v>
+      <c r="C44" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>143</v>
@@ -1910,8 +1916,8 @@
       <c r="B45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="1">
-        <v>16</v>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>151</v>
@@ -1930,8 +1936,8 @@
       <c r="B46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="1">
-        <v>16</v>
+      <c r="C46" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>152</v>
@@ -1950,8 +1956,8 @@
       <c r="B47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="1">
-        <v>16</v>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>160</v>
@@ -1970,8 +1976,8 @@
       <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="1">
-        <v>16</v>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>162</v>
@@ -1990,8 +1996,8 @@
       <c r="B49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="1">
-        <v>16</v>
+      <c r="C49" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>165</v>
@@ -2010,8 +2016,8 @@
       <c r="B50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="1">
-        <v>16</v>
+      <c r="C50" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>166</v>
@@ -2030,8 +2036,8 @@
       <c r="B51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="1">
-        <v>16</v>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>171</v>
@@ -2050,8 +2056,8 @@
       <c r="B52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="1">
-        <v>16</v>
+      <c r="C52" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>172</v>
@@ -2070,8 +2076,8 @@
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="1">
-        <v>16</v>
+      <c r="C53" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>176</v>
@@ -2090,8 +2096,8 @@
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="1">
-        <v>17</v>
+      <c r="C54" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>117</v>
@@ -2110,8 +2116,8 @@
       <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="1">
-        <v>17</v>
+      <c r="C55" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>122</v>
@@ -2130,8 +2136,8 @@
       <c r="B56" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="1">
-        <v>17</v>
+      <c r="C56" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>204</v>
@@ -2150,8 +2156,8 @@
       <c r="B57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="1">
-        <v>17</v>
+      <c r="C57" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>164</v>
@@ -2170,8 +2176,8 @@
       <c r="B58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="1">
-        <v>17</v>
+      <c r="C58" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>170</v>
@@ -2190,8 +2196,8 @@
       <c r="B59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="1">
-        <v>17</v>
+      <c r="C59" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>177</v>
@@ -2210,8 +2216,8 @@
       <c r="B60" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="1">
-        <v>18</v>
+      <c r="C60" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>206</v>
@@ -2230,8 +2236,8 @@
       <c r="B61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="1">
-        <v>18</v>
+      <c r="C61" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>112</v>
@@ -2250,8 +2256,8 @@
       <c r="B62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="1">
-        <v>18</v>
+      <c r="C62" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>123</v>
@@ -2270,8 +2276,8 @@
       <c r="B63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="1">
-        <v>18</v>
+      <c r="C63" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>161</v>
@@ -2290,8 +2296,8 @@
       <c r="B64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="1">
-        <v>18</v>
+      <c r="C64" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>163</v>
@@ -2310,8 +2316,8 @@
       <c r="B65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="1">
-        <v>18</v>
+      <c r="C65" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>169</v>
@@ -2330,8 +2336,8 @@
       <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="1">
-        <v>19</v>
+      <c r="C66" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>107</v>
@@ -2350,8 +2356,8 @@
       <c r="B67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="1">
-        <v>19</v>
+      <c r="C67" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>208</v>
@@ -2370,8 +2376,8 @@
       <c r="B68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="1">
-        <v>19</v>
+      <c r="C68" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>133</v>
@@ -2390,8 +2396,8 @@
       <c r="B69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="1">
-        <v>19</v>
+      <c r="C69" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>134</v>
@@ -2410,8 +2416,8 @@
       <c r="B70" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="1">
-        <v>19</v>
+      <c r="C70" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>135</v>
@@ -2430,8 +2436,8 @@
       <c r="B71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="1">
-        <v>19</v>
+      <c r="C71" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>140</v>
@@ -2450,8 +2456,8 @@
       <c r="B72" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="1">
-        <v>19</v>
+      <c r="C72" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>142</v>
@@ -2470,8 +2476,8 @@
       <c r="B73" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="1">
-        <v>19</v>
+      <c r="C73" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>145</v>
@@ -2490,8 +2496,8 @@
       <c r="B74" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="1">
-        <v>19</v>
+      <c r="C74" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>148</v>
@@ -2510,8 +2516,8 @@
       <c r="B75" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="1">
-        <v>19</v>
+      <c r="C75" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>210</v>
@@ -2530,8 +2536,8 @@
       <c r="B76" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="1">
-        <v>19</v>
+      <c r="C76" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>173</v>
@@ -2550,8 +2556,8 @@
       <c r="B77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="1">
-        <v>19</v>
+      <c r="C77" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>174</v>
@@ -2570,8 +2576,8 @@
       <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="1">
-        <v>19</v>
+      <c r="C78" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>175</v>
@@ -2590,8 +2596,8 @@
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="1">
-        <v>20</v>
+      <c r="C79" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>106</v>
@@ -2610,8 +2616,8 @@
       <c r="B80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="1">
-        <v>20</v>
+      <c r="C80" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>125</v>
@@ -2630,8 +2636,8 @@
       <c r="B81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="1">
-        <v>20</v>
+      <c r="C81" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>132</v>
@@ -2650,8 +2656,8 @@
       <c r="B82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="1">
-        <v>20</v>
+      <c r="C82" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>177</v>
@@ -2670,8 +2676,8 @@
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="1">
-        <v>20</v>
+      <c r="C83" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>154</v>
@@ -2690,8 +2696,8 @@
       <c r="B84" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="1">
-        <v>20</v>
+      <c r="C84" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>155</v>
@@ -2710,8 +2716,8 @@
       <c r="B85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="1">
-        <v>20</v>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>167</v>
@@ -2730,8 +2736,8 @@
       <c r="B86" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="1">
-        <v>20</v>
+      <c r="C86" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>168</v>
@@ -2750,8 +2756,8 @@
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="1">
-        <v>15</v>
+      <c r="C87" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>100</v>
@@ -2770,8 +2776,8 @@
       <c r="B88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="1">
-        <v>21</v>
+      <c r="C88" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>115</v>
@@ -2790,8 +2796,8 @@
       <c r="B89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="1">
-        <v>21</v>
+      <c r="C89" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>120</v>
@@ -2810,8 +2816,8 @@
       <c r="B90" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="1">
-        <v>15</v>
+      <c r="C90" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>129</v>
@@ -2830,8 +2836,8 @@
       <c r="B91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="1">
-        <v>14</v>
+      <c r="C91" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>130</v>
@@ -2850,8 +2856,8 @@
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="1">
-        <v>14</v>
+      <c r="C92" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>131</v>
@@ -2870,8 +2876,8 @@
       <c r="B93" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="1">
-        <v>21</v>
+      <c r="C93" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>159</v>
@@ -2894,7 +2900,7 @@
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
